--- a/MVC_DATABASE/Content/Templates/GHX Template V2.xlsx
+++ b/MVC_DATABASE/Content/Templates/GHX Template V2.xlsx
@@ -97,9 +97,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>List Price</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -571,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -606,10 +606,10 @@
         <v>41640</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -641,10 +641,10 @@
         <v>41640</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
@@ -676,10 +676,10 @@
         <v>41640</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
